--- a/src/templateProcesses.xlsx
+++ b/src/templateProcesses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781E0CF4-4864-1249-8A25-5C1365F12067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EC4C1E-46F6-0B42-BBAA-57EECFC50676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40760" yWindow="10080" windowWidth="37560" windowHeight="10540" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,36 +47,36 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Arguments_</t>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>OldVersion</t>
+  </si>
+  <si>
+    <t>ReleaseNotes</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Arguments</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IsActive</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Published</t>
-  </si>
-  <si>
-    <t>OldVersion</t>
-  </si>
-  <si>
-    <t>ReleaseNotes</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,6 +93,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="メイリオ"/>
@@ -180,13 +188,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,34 +543,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
